--- a/biology/Zoologie/Aulia_à_ventre_pâle/Aulia_à_ventre_pâle.xlsx
+++ b/biology/Zoologie/Aulia_à_ventre_pâle/Aulia_à_ventre_pâle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aulia_%C3%A0_ventre_p%C3%A2le</t>
+          <t>Aulia_à_ventre_pâle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhytipterna immunda · Tyran à ventre pâle
-L’Aulia à ventre pâle (Rhytipterna immunda), aussi appelé Tyran à ventre pâle, est une espèce de passereaux de la famille des Tyrannidae[1],[2].
+L’Aulia à ventre pâle (Rhytipterna immunda), aussi appelé Tyran à ventre pâle, est une espèce de passereaux de la famille des Tyrannidae,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aulia_%C3%A0_ventre_p%C3%A2le</t>
+          <t>Aulia_à_ventre_pâle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit dans une zone allant de l'Est de la Colombie au Suriname, à la Guyane et à l'Amazonie brésilienne[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit dans une zone allant de l'Est de la Colombie au Suriname, à la Guyane et à l'Amazonie brésilienne.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aulia_%C3%A0_ventre_p%C3%A2le</t>
+          <t>Aulia_à_ventre_pâle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce est monotypique selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019)[4].
-Le nom valide complet (avec auteur) de ce taxon est Rhytipterna immunda (P.L.Sclater &amp; Salvin, 1873)[5].
-L'espèce a été initialement classée dans le genre Lipaugus sous le protonyme Lipaugus immundus Sclater &amp; Salvin, 1873[5].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Tyran à ventre pâle[5].
-Rhytipterna immunda a pour synonyme[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette espèce est monotypique selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019).
+Le nom valide complet (avec auteur) de ce taxon est Rhytipterna immunda (P.L.Sclater &amp; Salvin, 1873).
+L'espèce a été initialement classée dans le genre Lipaugus sous le protonyme Lipaugus immundus Sclater &amp; Salvin, 1873.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Tyran à ventre pâle.
+Rhytipterna immunda a pour synonyme :
 Lipaugus immundus Sclater &amp; Salvin, 1873</t>
         </is>
       </c>
